--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>old</t>
   </si>
@@ -212,7 +212,10 @@
     <t>date</t>
   </si>
   <si>
-    <t>date_visit</t>
+    <t>system_submitter_id</t>
+  </si>
+  <si>
+    <t>sys_submit_id</t>
   </si>
 </sst>
 </file>
@@ -265,14 +268,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,273 +569,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>37</v>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>56</v>
       </c>
     </row>

--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -56,51 +56,6 @@
     <t>fs_name_hf</t>
   </si>
   <si>
-    <t>a1_reffacility</t>
-  </si>
-  <si>
-    <t>a1_refname</t>
-  </si>
-  <si>
-    <t>a1_id</t>
-  </si>
-  <si>
-    <t>a1_name</t>
-  </si>
-  <si>
-    <t>a1_sex</t>
-  </si>
-  <si>
-    <t>a1_enroldate</t>
-  </si>
-  <si>
-    <t>a1_hvisitdate</t>
-  </si>
-  <si>
-    <t>a1_found</t>
-  </si>
-  <si>
-    <t>a1_n2_1</t>
-  </si>
-  <si>
-    <t>a1_n2_2</t>
-  </si>
-  <si>
-    <t>a4_a4_b_2</t>
-  </si>
-  <si>
-    <t>a4_a4_b_6</t>
-  </si>
-  <si>
-    <t>a4_a4_b_3</t>
-  </si>
-  <si>
-    <t>a4_a4_b_1a</t>
-  </si>
-  <si>
-    <t>a4_a4_b_1</t>
-  </si>
-  <si>
     <t>dob_knwn_hf</t>
   </si>
   <si>
@@ -119,24 +74,6 @@
     <t>spo2_meas</t>
   </si>
   <si>
-    <t>n2t_n3_1a</t>
-  </si>
-  <si>
-    <t>n2_t_n3_1</t>
-  </si>
-  <si>
-    <t>n2t_n3_2a</t>
-  </si>
-  <si>
-    <t>n2t_n3_2</t>
-  </si>
-  <si>
-    <t>n4_n2_3</t>
-  </si>
-  <si>
-    <t>n4_n4_4</t>
-  </si>
-  <si>
     <t>rhf_id</t>
   </si>
   <si>
@@ -161,24 +98,12 @@
     <t>ward_oth</t>
   </si>
   <si>
-    <t>n4_n4_4o</t>
-  </si>
-  <si>
-    <t>n4_n4_1</t>
-  </si>
-  <si>
     <t>adm_dx</t>
   </si>
   <si>
     <t>adm_dx_oth</t>
   </si>
   <si>
-    <t>n4_n4_1o</t>
-  </si>
-  <si>
-    <t>n4_n4_2a</t>
-  </si>
-  <si>
     <t>o2</t>
   </si>
   <si>
@@ -188,18 +113,9 @@
     <t>o2_duration</t>
   </si>
   <si>
-    <t>n4_n4_2</t>
-  </si>
-  <si>
-    <t>n4_n4_3</t>
-  </si>
-  <si>
     <t>adm_outcome</t>
   </si>
   <si>
-    <t>n4_n4_5</t>
-  </si>
-  <si>
     <t>deviceid</t>
   </si>
   <si>
@@ -212,10 +128,94 @@
     <t>date</t>
   </si>
   <si>
-    <t>system_submitter_id</t>
-  </si>
-  <si>
     <t>sys_submit_id</t>
+  </si>
+  <si>
+    <t>a1-reffacility</t>
+  </si>
+  <si>
+    <t>a1-refname</t>
+  </si>
+  <si>
+    <t>a1-id</t>
+  </si>
+  <si>
+    <t>a1-name</t>
+  </si>
+  <si>
+    <t>a1-sex</t>
+  </si>
+  <si>
+    <t>a1-enroldate</t>
+  </si>
+  <si>
+    <t>a4-a4_b_2</t>
+  </si>
+  <si>
+    <t>a4-a4_b_6</t>
+  </si>
+  <si>
+    <t>a4-a4_b_3</t>
+  </si>
+  <si>
+    <t>a4-a4_b_1a</t>
+  </si>
+  <si>
+    <t>a4-a4_b_1</t>
+  </si>
+  <si>
+    <t>a1-hvisitdate</t>
+  </si>
+  <si>
+    <t>a1-found</t>
+  </si>
+  <si>
+    <t>a1-n2_1</t>
+  </si>
+  <si>
+    <t>a1-n2_2</t>
+  </si>
+  <si>
+    <t>n2t-n3_1a</t>
+  </si>
+  <si>
+    <t>n2-t_n3_1</t>
+  </si>
+  <si>
+    <t>n2t-n3_2a</t>
+  </si>
+  <si>
+    <t>n2t-n3_2</t>
+  </si>
+  <si>
+    <t>n4-n2_3</t>
+  </si>
+  <si>
+    <t>n4-n4_4</t>
+  </si>
+  <si>
+    <t>n4-n4_4o</t>
+  </si>
+  <si>
+    <t>n4-n4_1</t>
+  </si>
+  <si>
+    <t>n4-n4_1o</t>
+  </si>
+  <si>
+    <t>n4-n4_2a</t>
+  </si>
+  <si>
+    <t>n4-n4_2</t>
+  </si>
+  <si>
+    <t>n4-n4_3</t>
+  </si>
+  <si>
+    <t>n4-n4_5</t>
+  </si>
+  <si>
+    <t>SubmitterID</t>
   </si>
 </sst>
 </file>
@@ -572,7 +572,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -592,55 +592,55 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>3</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>6</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>8</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>9</v>
@@ -697,31 +697,31 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
@@ -729,122 +729,122 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>old</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>SubmitterID</t>
+  </si>
+  <si>
+    <t>deidentified</t>
   </si>
 </sst>
 </file>
@@ -569,281 +572,381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>29</v>
       </c>
     </row>

--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -668,7 +668,7 @@
         <v>37</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>

--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>old</t>
   </si>
@@ -98,12 +98,6 @@
     <t>ward_oth</t>
   </si>
   <si>
-    <t>adm_dx</t>
-  </si>
-  <si>
-    <t>adm_dx_oth</t>
-  </si>
-  <si>
     <t>o2</t>
   </si>
   <si>
@@ -219,6 +213,54 @@
   </si>
   <si>
     <t>deidentified</t>
+  </si>
+  <si>
+    <t>n4-n4_6</t>
+  </si>
+  <si>
+    <t>n4-n4_7</t>
+  </si>
+  <si>
+    <t>n4-n4_6o</t>
+  </si>
+  <si>
+    <t>facility_trans</t>
+  </si>
+  <si>
+    <t>facility_trans_oth</t>
+  </si>
+  <si>
+    <t>death_cause</t>
+  </si>
+  <si>
+    <t>n4-n4_8</t>
+  </si>
+  <si>
+    <t>dx_admission</t>
+  </si>
+  <si>
+    <t>dx_admission_oth</t>
+  </si>
+  <si>
+    <t>dx_discharge</t>
+  </si>
+  <si>
+    <t>dx_discharge_oth</t>
+  </si>
+  <si>
+    <t>n4-n4_8o</t>
+  </si>
+  <si>
+    <t>n4-ddeath</t>
+  </si>
+  <si>
+    <t>date_death</t>
+  </si>
+  <si>
+    <t>date_discharge</t>
+  </si>
+  <si>
+    <t>n4-n2_4</t>
   </si>
 </sst>
 </file>
@@ -572,17 +614,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -591,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -599,51 +641,51 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -654,7 +696,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -665,7 +707,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -676,7 +718,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -687,7 +729,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -698,7 +740,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -709,7 +751,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -720,7 +762,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -732,7 +774,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -743,7 +785,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -754,7 +796,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -765,7 +807,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -776,7 +818,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -787,7 +829,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -798,7 +840,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -809,7 +851,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -820,7 +862,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -831,7 +873,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -842,7 +884,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -853,7 +895,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -864,7 +906,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -875,7 +917,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -886,68 +928,145 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>62</v>
+      <c r="A33" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>29</v>
+      <c r="C33" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
   <si>
     <t>old</t>
   </si>
@@ -261,6 +261,105 @@
   </si>
   <si>
     <t>n4-n2_4</t>
+  </si>
+  <si>
+    <t>odk_ref</t>
+  </si>
+  <si>
+    <t>reffacility</t>
+  </si>
+  <si>
+    <t>refname</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>enroldate</t>
+  </si>
+  <si>
+    <t>a4_b_2</t>
+  </si>
+  <si>
+    <t>a4_b_6</t>
+  </si>
+  <si>
+    <t>a4_b_3</t>
+  </si>
+  <si>
+    <t>a4_b_1a</t>
+  </si>
+  <si>
+    <t>a4_b_1</t>
+  </si>
+  <si>
+    <t>hvisitdate</t>
+  </si>
+  <si>
+    <t>n2_1</t>
+  </si>
+  <si>
+    <t>n2_2</t>
+  </si>
+  <si>
+    <t>n3_1a</t>
+  </si>
+  <si>
+    <t>n3_2a</t>
+  </si>
+  <si>
+    <t>n3_2</t>
+  </si>
+  <si>
+    <t>n2_3</t>
+  </si>
+  <si>
+    <t>n4_4</t>
+  </si>
+  <si>
+    <t>n4_4o</t>
+  </si>
+  <si>
+    <t>n4_1</t>
+  </si>
+  <si>
+    <t>n4_1o</t>
+  </si>
+  <si>
+    <t>n4_2a</t>
+  </si>
+  <si>
+    <t>n4_2</t>
+  </si>
+  <si>
+    <t>n4_3</t>
+  </si>
+  <si>
+    <t>n4_5</t>
+  </si>
+  <si>
+    <t>n3_1</t>
+  </si>
+  <si>
+    <t>n4_6</t>
+  </si>
+  <si>
+    <t>n4_6o</t>
+  </si>
+  <si>
+    <t>n4_7</t>
+  </si>
+  <si>
+    <t>ddeath</t>
+  </si>
+  <si>
+    <t>n4_8</t>
+  </si>
+  <si>
+    <t>n4_8o</t>
+  </si>
+  <si>
+    <t>n2_4</t>
   </si>
 </sst>
 </file>
@@ -313,9 +412,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -333,6 +431,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,457 +720,576 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.58203125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="3" max="3" width="15.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="D5" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="D6" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="D9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="D10" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="D11" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="D12" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="D13" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="D14" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="D15" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="D16" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="D17" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="D18" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="D19" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="D20" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="D21" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="D22" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="D23" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="D24" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="D25" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="D26" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="D27" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="D28" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="D29" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="D30" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="D31" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="D32" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="D33" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="D34" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="D35" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="D36" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+      <c r="D37" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+      <c r="D38" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+      <c r="D39" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>77</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="113">
   <si>
     <t>old</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>n2_4</t>
+  </si>
+  <si>
+    <t>start</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,6 +441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -762,533 +766,547 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3">
+        <v>112</v>
+      </c>
+      <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>30</v>
+        <v>112</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>0</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>85</v>
+        <v>7</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>86</v>
+        <v>8</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>0</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>111</v>
       </c>
     </row>

--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="116">
   <si>
     <t>old</t>
   </si>
@@ -363,6 +363,15 @@
   </si>
   <si>
     <t>start</t>
+  </si>
+  <si>
+    <t>meta-instanceID</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>instanceID</t>
   </si>
 </sst>
 </file>
@@ -415,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -442,6 +451,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1310,6 +1322,20 @@
         <v>111</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="9">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="118">
   <si>
     <t>old</t>
   </si>
@@ -372,6 +372,12 @@
   </si>
   <si>
     <t>instanceID</t>
+  </si>
+  <si>
+    <t>FormVersion</t>
+  </si>
+  <si>
+    <t>form_version</t>
   </si>
 </sst>
 </file>
@@ -424,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,6 +458,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -734,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1336,6 +1345,20 @@
         <v>115</v>
       </c>
     </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="9">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="129">
   <si>
     <t>old</t>
   </si>
@@ -378,32 +378,72 @@
   </si>
   <si>
     <t>form_version</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>is_tanzania</t>
+  </si>
+  <si>
+    <t>a1-rfid</t>
+  </si>
+  <si>
+    <t>is_india</t>
+  </si>
+  <si>
+    <t>is_kenya</t>
+  </si>
+  <si>
+    <t>is_senegal</t>
+  </si>
+  <si>
+    <t>nominal</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>integer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -414,6 +454,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,21 +488,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -456,18 +511,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -743,49 +835,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.58203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.75" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
@@ -795,571 +920,1259 @@
       <c r="C3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B10">
+      <c r="B12" s="7">
         <v>0</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B14">
+      <c r="B16" s="7">
         <v>0</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B15">
+      <c r="B17" s="7">
         <v>0</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B17">
+      <c r="B19" s="7">
         <v>0</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="B29" s="7">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="B34" s="7">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="B35" s="7">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B36" s="7">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1</v>
+      </c>
+      <c r="H36" s="5">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="B37" s="7">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="B38" s="7">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="B40" s="7">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="B41" s="7">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="B42" s="7">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="B43" s="7">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="9">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D44" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="9">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B45" s="6">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D45" s="9" t="s">
         <v>116</v>
       </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46"/>
+      <c r="C46"/>
+      <c r="D46"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:H45">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B45">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10890"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="130">
   <si>
     <t>old</t>
   </si>
@@ -411,6 +411,9 @@
   </si>
   <si>
     <t>integer</t>
+  </si>
+  <si>
+    <t>double</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -835,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1081,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1110,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1458,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1487,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1516,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1921,8 +1923,8 @@
       <c r="H37" s="5">
         <v>1</v>
       </c>
-      <c r="I37" s="16" t="s">
-        <v>127</v>
+      <c r="I37" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -2154,13 +2156,8 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46"/>
-      <c r="C46"/>
-      <c r="D46"/>
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:H45">
@@ -2174,6 +2171,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="131">
   <si>
     <t>old</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>double</t>
+  </si>
+  <si>
+    <t>stat_analysis</t>
   </si>
 </sst>
 </file>
@@ -837,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I8"/>
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -852,9 +855,10 @@
     <col min="5" max="5" width="10.25" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="9.75" style="5" customWidth="1"/>
     <col min="9" max="9" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -882,8 +886,11 @@
       <c r="I1" s="15" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -911,8 +918,11 @@
       <c r="I2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="I3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>118</v>
       </c>
@@ -969,8 +982,11 @@
       <c r="I4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -998,8 +1014,11 @@
       <c r="I5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1027,8 +1046,11 @@
       <c r="I6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
@@ -1056,8 +1078,11 @@
       <c r="I7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1085,8 +1110,11 @@
       <c r="I8" s="16" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>122</v>
       </c>
@@ -1114,8 +1142,11 @@
       <c r="I9" s="16" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1143,8 +1174,11 @@
       <c r="I10" s="16" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -1172,8 +1206,11 @@
       <c r="I11" s="16" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -1201,8 +1238,11 @@
       <c r="I12" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1230,8 +1270,11 @@
       <c r="I13" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -1259,8 +1302,11 @@
       <c r="I14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1288,8 +1334,11 @@
       <c r="I15" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>40</v>
       </c>
@@ -1317,8 +1366,11 @@
       <c r="I16" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>41</v>
       </c>
@@ -1346,8 +1398,11 @@
       <c r="I17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -1375,8 +1430,11 @@
       <c r="I18" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>43</v>
       </c>
@@ -1404,8 +1462,11 @@
       <c r="I19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1433,8 +1494,11 @@
       <c r="I20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="I21" s="16" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
@@ -1491,8 +1558,11 @@
       <c r="I22" s="16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
@@ -1520,8 +1590,11 @@
       <c r="I23" s="16" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1549,8 +1622,11 @@
       <c r="I24" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
@@ -1578,8 +1654,11 @@
       <c r="I25" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1607,8 +1686,11 @@
       <c r="I26" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>51</v>
       </c>
@@ -1636,8 +1718,11 @@
       <c r="I27" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
@@ -1665,8 +1750,11 @@
       <c r="I28" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
@@ -1694,8 +1782,11 @@
       <c r="I29" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
@@ -1723,8 +1814,11 @@
       <c r="I30" s="16" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>55</v>
       </c>
@@ -1752,8 +1846,11 @@
       <c r="I31" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
@@ -1781,8 +1878,11 @@
       <c r="I32" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>57</v>
       </c>
@@ -1810,8 +1910,11 @@
       <c r="I33" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
@@ -1839,8 +1942,11 @@
       <c r="I34" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>59</v>
       </c>
@@ -1868,8 +1974,11 @@
       <c r="I35" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>60</v>
       </c>
@@ -1897,8 +2006,11 @@
       <c r="I36" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>63</v>
       </c>
@@ -1926,8 +2038,11 @@
       <c r="I37" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>65</v>
       </c>
@@ -1955,8 +2070,11 @@
       <c r="I38" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>64</v>
       </c>
@@ -1984,8 +2102,11 @@
       <c r="I39" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
@@ -2013,8 +2134,11 @@
       <c r="I40" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>69</v>
       </c>
@@ -2042,8 +2166,11 @@
       <c r="I41" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>74</v>
       </c>
@@ -2071,8 +2198,11 @@
       <c r="I42" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>78</v>
       </c>
@@ -2100,8 +2230,11 @@
       <c r="I43" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>113</v>
       </c>
@@ -2129,8 +2262,11 @@
       <c r="I44" s="16" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>116</v>
       </c>
@@ -2158,9 +2294,12 @@
       <c r="I45" t="s">
         <v>129</v>
       </c>
+      <c r="J45" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:H45">
+  <conditionalFormatting sqref="E2:H45 J2:J45">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="127">
   <si>
     <t>old</t>
   </si>
@@ -386,9 +386,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>timestamp</t>
-  </si>
-  <si>
     <t>is_tanzania</t>
   </si>
   <si>
@@ -404,16 +401,7 @@
     <t>is_senegal</t>
   </si>
   <si>
-    <t>nominal</t>
-  </si>
-  <si>
     <t>character</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>double</t>
   </si>
   <si>
     <t>stat_analysis</t>
@@ -423,7 +411,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,11 +422,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -493,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,7 +521,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -872,22 +854,22 @@
         <v>79</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>125</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>119</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -916,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="J2" s="5">
         <v>1</v>
@@ -948,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
@@ -980,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J4" s="5">
         <v>0</v>
@@ -1012,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J5" s="5">
         <v>0</v>
@@ -1044,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J6" s="5">
         <v>0</v>
@@ -1076,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J7" s="5">
         <v>0</v>
@@ -1107,8 +1089,8 @@
       <c r="H8" s="5">
         <v>1</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>126</v>
+      <c r="I8" t="s">
+        <v>125</v>
       </c>
       <c r="J8" s="5">
         <v>0</v>
@@ -1116,7 +1098,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -1139,8 +1121,8 @@
       <c r="H9" s="5">
         <v>0</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>126</v>
+      <c r="I9" t="s">
+        <v>125</v>
       </c>
       <c r="J9" s="5">
         <v>0</v>
@@ -1171,8 +1153,8 @@
       <c r="H10" s="5">
         <v>1</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>127</v>
+      <c r="I10" t="s">
+        <v>125</v>
       </c>
       <c r="J10" s="5">
         <v>0</v>
@@ -1203,8 +1185,8 @@
       <c r="H11" s="5">
         <v>1</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>127</v>
+      <c r="I11" t="s">
+        <v>125</v>
       </c>
       <c r="J11" s="5">
         <v>0</v>
@@ -1236,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J12" s="5">
         <v>0</v>
@@ -1268,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J13" s="5">
         <v>0</v>
@@ -1300,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="J14" s="5">
         <v>0</v>
@@ -1332,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J15" s="5">
         <v>0</v>
@@ -1364,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J16" s="5">
         <v>0</v>
@@ -1396,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J17" s="5">
         <v>0</v>
@@ -1428,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J18" s="5">
         <v>0</v>
@@ -1460,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="J19" s="5">
         <v>0</v>
@@ -1492,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="J20" s="5">
         <v>0</v>
@@ -1523,8 +1505,8 @@
       <c r="H21" s="5">
         <v>1</v>
       </c>
-      <c r="I21" s="16" t="s">
-        <v>126</v>
+      <c r="I21" t="s">
+        <v>125</v>
       </c>
       <c r="J21" s="5">
         <v>1</v>
@@ -1555,8 +1537,8 @@
       <c r="H22" s="5">
         <v>1</v>
       </c>
-      <c r="I22" s="16" t="s">
-        <v>31</v>
+      <c r="I22" t="s">
+        <v>125</v>
       </c>
       <c r="J22" s="5">
         <v>1</v>
@@ -1587,8 +1569,8 @@
       <c r="H23" s="5">
         <v>1</v>
       </c>
-      <c r="I23" s="16" t="s">
-        <v>126</v>
+      <c r="I23" t="s">
+        <v>125</v>
       </c>
       <c r="J23" s="5">
         <v>1</v>
@@ -1620,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J24" s="5">
         <v>0</v>
@@ -1652,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J25" s="5">
         <v>0</v>
@@ -1684,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J26" s="5">
         <v>0</v>
@@ -1716,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J27" s="5">
         <v>0</v>
@@ -1748,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J28" s="5">
         <v>1</v>
@@ -1780,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J29" s="5">
         <v>0</v>
@@ -1811,8 +1793,8 @@
       <c r="H30" s="5">
         <v>1</v>
       </c>
-      <c r="I30" s="16" t="s">
-        <v>127</v>
+      <c r="I30" t="s">
+        <v>125</v>
       </c>
       <c r="J30" s="5">
         <v>0</v>
@@ -1844,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J31" s="5">
         <v>0</v>
@@ -1876,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J32" s="5">
         <v>0</v>
@@ -1908,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J33" s="5">
         <v>0</v>
@@ -1940,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J34" s="5">
         <v>0</v>
@@ -1972,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J35" s="5">
         <v>0</v>
@@ -2004,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J36" s="5">
         <v>1</v>
@@ -2036,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J37" s="5">
         <v>0</v>
@@ -2068,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J38" s="5">
         <v>0</v>
@@ -2100,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J39" s="5">
         <v>0</v>
@@ -2132,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="J40" s="5">
         <v>1</v>
@@ -2164,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J41" s="5">
         <v>1</v>
@@ -2196,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J42" s="5">
         <v>0</v>
@@ -2228,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="J43" s="5">
         <v>0</v>
@@ -2259,8 +2241,8 @@
       <c r="H44" s="5">
         <v>1</v>
       </c>
-      <c r="I44" s="16" t="s">
-        <v>127</v>
+      <c r="I44" t="s">
+        <v>125</v>
       </c>
       <c r="J44" s="5">
         <v>0</v>
@@ -2292,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J45" s="5">
         <v>0</v>

--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="129">
   <si>
     <t>old</t>
   </si>
@@ -405,6 +405,12 @@
   </si>
   <si>
     <t>stat_analysis</t>
+  </si>
+  <si>
+    <t>SubmissionDate</t>
+  </si>
+  <si>
+    <t>submission_date</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -521,11 +527,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -822,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -833,7 +882,7 @@
     <col min="1" max="1" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.25" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="9.75" style="5" customWidth="1"/>
     <col min="9" max="9" width="9.08203125" bestFit="1" customWidth="1"/>
@@ -1034,92 +1083,92 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>125</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
         <v>125</v>
@@ -1129,113 +1178,113 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>125</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>125</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>125</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -1258,80 +1307,80 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>125</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>125</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -1354,112 +1403,112 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="7">
-        <v>0</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>125</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="7">
-        <v>0</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>125</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="7">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -1482,16 +1531,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="7">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -1509,21 +1558,21 @@
         <v>125</v>
       </c>
       <c r="J21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="7">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -1546,49 +1595,49 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="7">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-      <c r="F23" s="5">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>125</v>
-      </c>
-      <c r="J23" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="7">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="E24" s="5">
         <v>1</v>
       </c>
@@ -1605,21 +1654,21 @@
         <v>125</v>
       </c>
       <c r="J24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="7">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
@@ -1642,81 +1691,81 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>125</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="7">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
-      <c r="F26" s="5">
-        <v>1</v>
-      </c>
-      <c r="G26" s="5">
-        <v>1</v>
-      </c>
-      <c r="H26" s="5">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>125</v>
-      </c>
-      <c r="J26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>125</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="7">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5">
-        <v>1</v>
-      </c>
-      <c r="H27" s="5">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>125</v>
-      </c>
-      <c r="J27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="7">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="E28" s="5">
         <v>1</v>
       </c>
@@ -1733,21 +1782,21 @@
         <v>125</v>
       </c>
       <c r="J28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="7">
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
@@ -1765,21 +1814,21 @@
         <v>125</v>
       </c>
       <c r="J29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="7">
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
@@ -1802,16 +1851,16 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="7">
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
@@ -1834,16 +1883,16 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="7">
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
@@ -1866,16 +1915,16 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="7">
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -1898,16 +1947,16 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="7">
         <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
@@ -1930,16 +1979,16 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="7">
         <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
@@ -1962,16 +2011,16 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" s="7">
         <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E36" s="5">
         <v>1</v>
@@ -1989,21 +2038,21 @@
         <v>125</v>
       </c>
       <c r="J36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B37" s="7">
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
@@ -2021,53 +2070,53 @@
         <v>125</v>
       </c>
       <c r="J37" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>125</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="7">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="E38" s="5">
-        <v>1</v>
-      </c>
-      <c r="F38" s="5">
-        <v>1</v>
-      </c>
-      <c r="G38" s="5">
-        <v>1</v>
-      </c>
-      <c r="H38" s="5">
-        <v>1</v>
-      </c>
-      <c r="I38" t="s">
-        <v>125</v>
-      </c>
-      <c r="J38" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="7">
-        <v>1</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="E39" s="5">
         <v>1</v>
@@ -2090,16 +2139,16 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B40" s="7">
         <v>1</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E40" s="5">
         <v>1</v>
@@ -2117,21 +2166,21 @@
         <v>125</v>
       </c>
       <c r="J40" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B41" s="7">
         <v>1</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -2154,16 +2203,16 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B42" s="7">
         <v>1</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E42" s="5">
         <v>1</v>
@@ -2181,53 +2230,53 @@
         <v>125</v>
       </c>
       <c r="J42" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="7">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>125</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="7">
-        <v>1</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="B44" s="7">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5">
-        <v>1</v>
-      </c>
-      <c r="G43" s="5">
-        <v>1</v>
-      </c>
-      <c r="H43" s="5">
-        <v>1</v>
-      </c>
-      <c r="I43" t="s">
-        <v>125</v>
-      </c>
-      <c r="J43" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="6">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="E44" s="5">
         <v>1</v>
@@ -2250,43 +2299,95 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>125</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="6">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B46" s="6">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D46" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E45" s="5">
-        <v>1</v>
-      </c>
-      <c r="F45" s="5">
-        <v>1</v>
-      </c>
-      <c r="G45" s="5">
-        <v>1</v>
-      </c>
-      <c r="H45" s="5">
-        <v>1</v>
-      </c>
-      <c r="I45" t="s">
-        <v>125</v>
-      </c>
-      <c r="J45" s="5">
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>125</v>
+      </c>
+      <c r="J46" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:H45 J2:J45">
+  <conditionalFormatting sqref="E2:H6 J2:J6 J8:J46 E8:H46">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B6 B8:B46">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:F7 J7">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B45">
+  <conditionalFormatting sqref="H7">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="127">
   <si>
     <t>old</t>
   </si>
@@ -383,9 +383,6 @@
     <t>end</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>is_tanzania</t>
   </si>
   <si>
@@ -399,9 +396,6 @@
   </si>
   <si>
     <t>is_senegal</t>
-  </si>
-  <si>
-    <t>character</t>
   </si>
   <si>
     <t>stat_analysis</t>
@@ -482,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -525,10 +519,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -885,11 +875,10 @@
     <col min="4" max="4" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.25" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="9.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -903,25 +892,22 @@
         <v>79</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -946,14 +932,11 @@
       <c r="H2" s="5">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
@@ -978,14 +961,11 @@
       <c r="H3" s="5">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>118</v>
       </c>
@@ -1010,14 +990,11 @@
       <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1042,14 +1019,11 @@
       <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
-        <v>125</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1074,25 +1048,22 @@
       <c r="H6" s="5">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="B7" s="9">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -1106,14 +1077,11 @@
       <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -1138,14 +1106,11 @@
       <c r="H8" s="5">
         <v>1</v>
       </c>
-      <c r="I8" t="s">
-        <v>125</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1170,16 +1135,13 @@
       <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -1202,14 +1164,11 @@
       <c r="H10" s="5">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
-        <v>125</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1234,14 +1193,11 @@
       <c r="H11" s="5">
         <v>1</v>
       </c>
-      <c r="I11" t="s">
-        <v>125</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1266,14 +1222,11 @@
       <c r="H12" s="5">
         <v>1</v>
       </c>
-      <c r="I12" t="s">
-        <v>125</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>36</v>
       </c>
@@ -1298,14 +1251,11 @@
       <c r="H13" s="5">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -1330,14 +1280,11 @@
       <c r="H14" s="5">
         <v>1</v>
       </c>
-      <c r="I14" t="s">
-        <v>125</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1362,14 +1309,11 @@
       <c r="H15" s="5">
         <v>1</v>
       </c>
-      <c r="I15" t="s">
-        <v>125</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -1394,14 +1338,11 @@
       <c r="H16" s="5">
         <v>1</v>
       </c>
-      <c r="I16" t="s">
-        <v>125</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>40</v>
       </c>
@@ -1426,14 +1367,11 @@
       <c r="H17" s="5">
         <v>1</v>
       </c>
-      <c r="I17" t="s">
-        <v>125</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>41</v>
       </c>
@@ -1458,14 +1396,11 @@
       <c r="H18" s="5">
         <v>1</v>
       </c>
-      <c r="I18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -1490,14 +1425,11 @@
       <c r="H19" s="5">
         <v>1</v>
       </c>
-      <c r="I19" t="s">
-        <v>125</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -1522,14 +1454,11 @@
       <c r="H20" s="5">
         <v>1</v>
       </c>
-      <c r="I20" t="s">
-        <v>125</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -1554,14 +1483,11 @@
       <c r="H21" s="5">
         <v>1</v>
       </c>
-      <c r="I21" t="s">
-        <v>125</v>
-      </c>
-      <c r="J21" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -1586,14 +1512,11 @@
       <c r="H22" s="5">
         <v>1</v>
       </c>
-      <c r="I22" t="s">
-        <v>125</v>
-      </c>
-      <c r="J22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -1618,14 +1541,11 @@
       <c r="H23" s="5">
         <v>1</v>
       </c>
-      <c r="I23" t="s">
-        <v>125</v>
-      </c>
-      <c r="J23" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -1650,14 +1570,11 @@
       <c r="H24" s="5">
         <v>1</v>
       </c>
-      <c r="I24" t="s">
-        <v>125</v>
-      </c>
-      <c r="J24" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1682,14 +1599,11 @@
       <c r="H25" s="5">
         <v>1</v>
       </c>
-      <c r="I25" t="s">
-        <v>125</v>
-      </c>
-      <c r="J25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -1714,14 +1628,11 @@
       <c r="H26" s="5">
         <v>1</v>
       </c>
-      <c r="I26" t="s">
-        <v>125</v>
-      </c>
-      <c r="J26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
@@ -1746,14 +1657,11 @@
       <c r="H27" s="5">
         <v>1</v>
       </c>
-      <c r="I27" t="s">
-        <v>125</v>
-      </c>
-      <c r="J27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>51</v>
       </c>
@@ -1778,14 +1686,11 @@
       <c r="H28" s="5">
         <v>1</v>
       </c>
-      <c r="I28" t="s">
-        <v>125</v>
-      </c>
-      <c r="J28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
@@ -1810,14 +1715,11 @@
       <c r="H29" s="5">
         <v>1</v>
       </c>
-      <c r="I29" t="s">
-        <v>125</v>
-      </c>
-      <c r="J29" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>53</v>
       </c>
@@ -1842,14 +1744,11 @@
       <c r="H30" s="5">
         <v>1</v>
       </c>
-      <c r="I30" t="s">
-        <v>125</v>
-      </c>
-      <c r="J30" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>54</v>
       </c>
@@ -1874,14 +1773,11 @@
       <c r="H31" s="5">
         <v>1</v>
       </c>
-      <c r="I31" t="s">
-        <v>125</v>
-      </c>
-      <c r="J31" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>55</v>
       </c>
@@ -1906,14 +1802,11 @@
       <c r="H32" s="5">
         <v>1</v>
       </c>
-      <c r="I32" t="s">
-        <v>125</v>
-      </c>
-      <c r="J32" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>56</v>
       </c>
@@ -1938,14 +1831,11 @@
       <c r="H33" s="5">
         <v>1</v>
       </c>
-      <c r="I33" t="s">
-        <v>125</v>
-      </c>
-      <c r="J33" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>57</v>
       </c>
@@ -1970,14 +1860,11 @@
       <c r="H34" s="5">
         <v>1</v>
       </c>
-      <c r="I34" t="s">
-        <v>125</v>
-      </c>
-      <c r="J34" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>58</v>
       </c>
@@ -2002,14 +1889,11 @@
       <c r="H35" s="5">
         <v>1</v>
       </c>
-      <c r="I35" t="s">
-        <v>125</v>
-      </c>
-      <c r="J35" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>59</v>
       </c>
@@ -2034,14 +1918,11 @@
       <c r="H36" s="5">
         <v>1</v>
       </c>
-      <c r="I36" t="s">
-        <v>125</v>
-      </c>
-      <c r="J36" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>60</v>
       </c>
@@ -2066,14 +1947,11 @@
       <c r="H37" s="5">
         <v>1</v>
       </c>
-      <c r="I37" t="s">
-        <v>125</v>
-      </c>
-      <c r="J37" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>63</v>
       </c>
@@ -2098,14 +1976,11 @@
       <c r="H38" s="5">
         <v>1</v>
       </c>
-      <c r="I38" t="s">
-        <v>125</v>
-      </c>
-      <c r="J38" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>65</v>
       </c>
@@ -2130,14 +2005,11 @@
       <c r="H39" s="5">
         <v>1</v>
       </c>
-      <c r="I39" t="s">
-        <v>125</v>
-      </c>
-      <c r="J39" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>64</v>
       </c>
@@ -2162,14 +2034,11 @@
       <c r="H40" s="5">
         <v>1</v>
       </c>
-      <c r="I40" t="s">
-        <v>125</v>
-      </c>
-      <c r="J40" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>75</v>
       </c>
@@ -2194,14 +2063,11 @@
       <c r="H41" s="5">
         <v>1</v>
       </c>
-      <c r="I41" t="s">
-        <v>125</v>
-      </c>
-      <c r="J41" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>69</v>
       </c>
@@ -2226,14 +2092,11 @@
       <c r="H42" s="5">
         <v>1</v>
       </c>
-      <c r="I42" t="s">
-        <v>125</v>
-      </c>
-      <c r="J42" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>74</v>
       </c>
@@ -2258,14 +2121,11 @@
       <c r="H43" s="5">
         <v>1</v>
       </c>
-      <c r="I43" t="s">
-        <v>125</v>
-      </c>
-      <c r="J43" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>78</v>
       </c>
@@ -2290,14 +2150,11 @@
       <c r="H44" s="5">
         <v>1</v>
       </c>
-      <c r="I44" t="s">
-        <v>125</v>
-      </c>
-      <c r="J44" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>113</v>
       </c>
@@ -2322,14 +2179,11 @@
       <c r="H45" s="5">
         <v>1</v>
       </c>
-      <c r="I45" t="s">
-        <v>125</v>
-      </c>
-      <c r="J45" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>116</v>
       </c>
@@ -2354,15 +2208,12 @@
       <c r="H46" s="5">
         <v>1</v>
       </c>
-      <c r="I46" t="s">
-        <v>125</v>
-      </c>
-      <c r="J46" s="5">
+      <c r="I46" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:H6 J2:J6 J8:J46 E8:H46">
+  <conditionalFormatting sqref="E2:I6 E8:I46">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2377,7 +2228,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:F7 J7">
+  <conditionalFormatting sqref="E7:F7 I7">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -173,9 +173,6 @@
     <t>n2t-n3_1a</t>
   </si>
   <si>
-    <t>n2-t_n3_1</t>
-  </si>
-  <si>
     <t>n2t-n3_2a</t>
   </si>
   <si>
@@ -405,6 +402,9 @@
   </si>
   <si>
     <t>submission_date</t>
+  </si>
+  <si>
+    <t>n2t_n3_1</t>
   </si>
 </sst>
 </file>
@@ -864,50 +864,50 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.25" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="9.75" style="5" customWidth="1"/>
     <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -936,18 +936,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -965,18 +965,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1052,18 +1052,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -1081,9 +1081,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -1092,7 +1092,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="11">
         <v>0</v>
@@ -1139,9 +1139,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -1150,7 +1150,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>36</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>40</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>41</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
@@ -1603,9 +1603,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="B26" s="7">
         <v>1</v>
@@ -1614,7 +1614,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
@@ -1632,9 +1632,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="7">
         <v>1</v>
@@ -1643,7 +1643,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -1661,9 +1661,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="7">
         <v>1</v>
@@ -1672,7 +1672,7 @@
         <v>15</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
@@ -1690,9 +1690,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="7">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         <v>21</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
@@ -1719,9 +1719,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="7">
         <v>1</v>
@@ -1730,7 +1730,7 @@
         <v>22</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
@@ -1748,9 +1748,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="7">
         <v>1</v>
@@ -1759,85 +1759,85 @@
         <v>23</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="5">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5">
-        <v>1</v>
-      </c>
-      <c r="G31" s="5">
-        <v>1</v>
-      </c>
-      <c r="H31" s="5">
-        <v>1</v>
-      </c>
-      <c r="I31" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="7">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="5">
-        <v>1</v>
-      </c>
-      <c r="F32" s="5">
-        <v>1</v>
-      </c>
-      <c r="G32" s="5">
-        <v>1</v>
-      </c>
-      <c r="H32" s="5">
-        <v>1</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B33" s="7">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5">
-        <v>1</v>
-      </c>
-      <c r="H33" s="5">
-        <v>1</v>
-      </c>
-      <c r="I33" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="B34" s="7">
         <v>1</v>
@@ -1846,7 +1846,7 @@
         <v>24</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
@@ -1864,9 +1864,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="7">
         <v>1</v>
@@ -1875,7 +1875,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
@@ -1893,9 +1893,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="7">
         <v>1</v>
@@ -1904,7 +1904,7 @@
         <v>26</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E36" s="5">
         <v>1</v>
@@ -1922,9 +1922,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" s="7">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>27</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
@@ -1951,193 +1951,193 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="7">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="5">
-        <v>1</v>
-      </c>
-      <c r="F38" s="5">
-        <v>1</v>
-      </c>
-      <c r="G38" s="5">
-        <v>1</v>
-      </c>
-      <c r="H38" s="5">
-        <v>1</v>
-      </c>
-      <c r="I38" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="7">
-        <v>1</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B40" s="7">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="5">
-        <v>1</v>
-      </c>
-      <c r="F39" s="5">
-        <v>1</v>
-      </c>
-      <c r="G39" s="5">
-        <v>1</v>
-      </c>
-      <c r="H39" s="5">
-        <v>1</v>
-      </c>
-      <c r="I39" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="7">
-        <v>1</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="7">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="5">
-        <v>1</v>
-      </c>
-      <c r="F40" s="5">
-        <v>1</v>
-      </c>
-      <c r="G40" s="5">
-        <v>1</v>
-      </c>
-      <c r="H40" s="5">
-        <v>1</v>
-      </c>
-      <c r="I40" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="7">
-        <v>1</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="B42" s="7">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="7">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="5">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5">
-        <v>1</v>
-      </c>
-      <c r="G41" s="5">
-        <v>1</v>
-      </c>
-      <c r="H41" s="5">
-        <v>1</v>
-      </c>
-      <c r="I41" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="7">
-        <v>1</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="5">
-        <v>1</v>
-      </c>
-      <c r="F42" s="5">
-        <v>1</v>
-      </c>
-      <c r="G42" s="5">
-        <v>1</v>
-      </c>
-      <c r="H42" s="5">
-        <v>1</v>
-      </c>
-      <c r="I42" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="7">
-        <v>1</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5">
-        <v>1</v>
-      </c>
-      <c r="G43" s="5">
-        <v>1</v>
-      </c>
-      <c r="H43" s="5">
-        <v>1</v>
-      </c>
-      <c r="I43" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="7">
-        <v>1</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="E44" s="5">
         <v>1</v>
       </c>
@@ -2154,47 +2154,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="6">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="5">
-        <v>1</v>
-      </c>
-      <c r="F45" s="5">
-        <v>1</v>
-      </c>
-      <c r="G45" s="5">
-        <v>1</v>
-      </c>
-      <c r="H45" s="5">
-        <v>1</v>
-      </c>
-      <c r="I45" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="6">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="6">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="D46" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E46" s="5">
         <v>1</v>

--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -864,7 +864,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1130,10 +1130,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="5">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="5">
         <v>0</v>

--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -404,7 +404,7 @@
     <t>submission_date</t>
   </si>
   <si>
-    <t>n2t_n3_1</t>
+    <t>n2t-n3_1</t>
   </si>
 </sst>
 </file>
@@ -863,22 +863,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.25" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="9.75" style="5" customWidth="1"/>
     <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -907,7 +907,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -936,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>117</v>
       </c>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>124</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>119</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>36</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>40</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>41</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>126</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>51</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>53</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>54</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>55</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>56</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>57</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>58</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>59</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>62</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>63</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>74</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>68</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>73</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>77</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>112</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>115</v>
       </c>

--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -999,7 +999,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>30</v>

--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -864,7 +864,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1057,7 +1057,7 @@
         <v>124</v>
       </c>
       <c r="B7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>125</v>
@@ -1086,7 +1086,7 @@
         <v>60</v>
       </c>
       <c r="B8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>

--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -864,7 +864,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -970,7 +970,7 @@
         <v>117</v>
       </c>
       <c r="B4" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>117</v>

--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1260,7 +1260,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>3</v>
@@ -1289,7 +1289,7 @@
         <v>38</v>
       </c>
       <c r="B15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>6</v>

--- a/inst/extdata/hospit_dict.xlsx
+++ b/inst/extdata/hospit_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="133">
   <si>
     <t>old</t>
   </si>
@@ -405,6 +405,24 @@
   </si>
   <si>
     <t>n2t-n3_1</t>
+  </si>
+  <si>
+    <t>n4_1_extended</t>
+  </si>
+  <si>
+    <t>n4-n4_1_extended</t>
+  </si>
+  <si>
+    <t>dx_admission_ext</t>
+  </si>
+  <si>
+    <t>n4-n4_8_extended</t>
+  </si>
+  <si>
+    <t>dx_discharge_ext</t>
+  </si>
+  <si>
+    <t>n4_8_extended</t>
   </si>
 </sst>
 </file>
@@ -524,7 +542,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -861,24 +939,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.25" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="9.75" style="5" customWidth="1"/>
     <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -907,7 +985,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -936,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
@@ -965,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>117</v>
       </c>
@@ -994,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1023,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1052,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>124</v>
       </c>
@@ -1081,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
@@ -1110,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1139,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>119</v>
       </c>
@@ -1168,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1197,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1226,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>36</v>
       </c>
@@ -1255,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -1284,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1313,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -1342,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>40</v>
       </c>
@@ -1371,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>41</v>
       </c>
@@ -1400,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -1429,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -1458,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -1487,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -1516,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -1545,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -1574,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1603,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>126</v>
       </c>
@@ -1632,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
@@ -1661,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -1690,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>51</v>
       </c>
@@ -1719,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
@@ -1748,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>53</v>
       </c>
@@ -1777,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>54</v>
       </c>
@@ -1806,439 +1884,512 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="7">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B34" s="7">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5">
-        <v>1</v>
-      </c>
-      <c r="H33" s="5">
-        <v>1</v>
-      </c>
-      <c r="I33" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="7">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B35" s="7">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="5">
-        <v>1</v>
-      </c>
-      <c r="F34" s="5">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5">
-        <v>1</v>
-      </c>
-      <c r="H34" s="5">
-        <v>1</v>
-      </c>
-      <c r="I34" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="7">
-        <v>1</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B36" s="7">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="5">
-        <v>1</v>
-      </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-      <c r="G35" s="5">
-        <v>1</v>
-      </c>
-      <c r="H35" s="5">
-        <v>1</v>
-      </c>
-      <c r="I35" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1</v>
+      </c>
+      <c r="H36" s="5">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="7">
-        <v>1</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B37" s="7">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="5">
-        <v>1</v>
-      </c>
-      <c r="F36" s="5">
-        <v>1</v>
-      </c>
-      <c r="G36" s="5">
-        <v>1</v>
-      </c>
-      <c r="H36" s="5">
-        <v>1</v>
-      </c>
-      <c r="I36" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="7">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B38" s="7">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="5">
-        <v>1</v>
-      </c>
-      <c r="F37" s="5">
-        <v>1</v>
-      </c>
-      <c r="G37" s="5">
-        <v>1</v>
-      </c>
-      <c r="H37" s="5">
-        <v>1</v>
-      </c>
-      <c r="I37" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="7">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="5">
-        <v>1</v>
-      </c>
-      <c r="F38" s="5">
-        <v>1</v>
-      </c>
-      <c r="G38" s="5">
-        <v>1</v>
-      </c>
-      <c r="H38" s="5">
-        <v>1</v>
-      </c>
-      <c r="I38" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="7">
-        <v>1</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B40" s="7">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="5">
-        <v>1</v>
-      </c>
-      <c r="F39" s="5">
-        <v>1</v>
-      </c>
-      <c r="G39" s="5">
-        <v>1</v>
-      </c>
-      <c r="H39" s="5">
-        <v>1</v>
-      </c>
-      <c r="I39" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="7">
-        <v>1</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="B41" s="7">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="5">
-        <v>1</v>
-      </c>
-      <c r="F40" s="5">
-        <v>1</v>
-      </c>
-      <c r="G40" s="5">
-        <v>1</v>
-      </c>
-      <c r="H40" s="5">
-        <v>1</v>
-      </c>
-      <c r="I40" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="7">
-        <v>1</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="B42" s="7">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="5">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5">
-        <v>1</v>
-      </c>
-      <c r="G41" s="5">
-        <v>1</v>
-      </c>
-      <c r="H41" s="5">
-        <v>1</v>
-      </c>
-      <c r="I41" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="7">
-        <v>1</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="B43" s="7">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="5">
-        <v>1</v>
-      </c>
-      <c r="F42" s="5">
-        <v>1</v>
-      </c>
-      <c r="G42" s="5">
-        <v>1</v>
-      </c>
-      <c r="H42" s="5">
-        <v>1</v>
-      </c>
-      <c r="I42" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="7">
-        <v>1</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="B45" s="7">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5">
-        <v>1</v>
-      </c>
-      <c r="G43" s="5">
-        <v>1</v>
-      </c>
-      <c r="H43" s="5">
-        <v>1</v>
-      </c>
-      <c r="I43" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="7">
-        <v>1</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="B46" s="7">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="5">
-        <v>1</v>
-      </c>
-      <c r="F44" s="5">
-        <v>1</v>
-      </c>
-      <c r="G44" s="5">
-        <v>1</v>
-      </c>
-      <c r="H44" s="5">
-        <v>1</v>
-      </c>
-      <c r="I44" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="6">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B47" s="6">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D47" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="5">
-        <v>1</v>
-      </c>
-      <c r="F45" s="5">
-        <v>1</v>
-      </c>
-      <c r="G45" s="5">
-        <v>1</v>
-      </c>
-      <c r="H45" s="5">
-        <v>1</v>
-      </c>
-      <c r="I45" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5">
+        <v>1</v>
+      </c>
+      <c r="H47" s="5">
+        <v>1</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="6">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B48" s="6">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D48" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="5">
-        <v>1</v>
-      </c>
-      <c r="F46" s="5">
-        <v>1</v>
-      </c>
-      <c r="G46" s="5">
-        <v>1</v>
-      </c>
-      <c r="H46" s="5">
-        <v>1</v>
-      </c>
-      <c r="I46" s="5">
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1</v>
+      </c>
+      <c r="G48" s="5">
+        <v>1</v>
+      </c>
+      <c r="H48" s="5">
+        <v>1</v>
+      </c>
+      <c r="I48" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:I6 E8:I46">
+  <conditionalFormatting sqref="E2:I6 E8:I32 E34:I43 E45:I48">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B6 B8:B43 B45:B48">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:F7 I7">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:I33">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B6 B8:B46">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7:F7 I7">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="E44:I44">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="B44">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
